--- a/抽卡记录.xlsx
+++ b/抽卡记录.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a4b8ddf0d9503d6/桌面/1013原神抽卡/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Vtuber\Tools\GachaStatistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="298" documentId="11_F25DC773A252ABDACC104819615A45DE5BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C693A4F9-760F-463A-8FBB-94F19EC2DBD4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30896064-7C96-4DB4-A478-1C371EBD334E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="角色池" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>总抽数</t>
   </si>
@@ -55,13 +55,22 @@
     <t>冬弓比例</t>
   </si>
   <si>
-    <t>公子</t>
-  </si>
-  <si>
-    <t>公子出率</t>
-  </si>
-  <si>
-    <t>公子比例</t>
+    <t>合计抽数</t>
+  </si>
+  <si>
+    <t>up五星</t>
+  </si>
+  <si>
+    <t>开始抽</t>
+  </si>
+  <si>
+    <t>雷神</t>
+  </si>
+  <si>
+    <t>心海</t>
+  </si>
+  <si>
+    <t>五星</t>
   </si>
 </sst>
 </file>
@@ -380,58 +389,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A31:F33"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="10" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <f>SUM(C11:ZZ100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <f>COUNTA(C11:ZZ100)-COUNT(C11:ZZ100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" t="str">
+        <f>_xlfn.CONCAT(A2,"出率")</f>
+        <v>五星出率</v>
+      </c>
+      <c r="B3" s="1" t="e">
+        <f>B2/$B$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <f>COUNTIF(C11:ZZ100,A4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="str">
+        <f>_xlfn.CONCAT(A4,"出率")</f>
+        <v>雷神出率</v>
+      </c>
+      <c r="B5" s="1" t="e">
+        <f>B4/$B$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="str">
+        <f>_xlfn.CONCAT(A4,"比例")</f>
+        <v>雷神比例</v>
+      </c>
+      <c r="B6" s="1" t="e">
+        <f>B4/$B$2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <f>COUNTIF(C11:ZZ100,A7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="str">
+        <f>_xlfn.CONCAT(A7,"出率")</f>
+        <v>心海出率</v>
+      </c>
+      <c r="B8" s="1" t="e">
+        <f>B7/$B$1</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="str">
+        <f>_xlfn.CONCAT(A7,"比例")</f>
+        <v>心海比例</v>
+      </c>
+      <c r="B9" s="1" t="e">
+        <f>B7/$B$2</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <f>SUM(C11:ZZ11)</f>
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f>COUNTA(C11:ZZ11)-COUNT(C11:ZZ11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <f t="shared" ref="A12:A40" si="0">SUM(C12:ZZ12)</f>
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ref="B12:B40" si="1">COUNTA(C12:ZZ12)-COUNT(C12:ZZ12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="B31">
-        <f>SUM(1:20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="B32">
-        <f>COUNTA(1:30)-COUNT(1:30)</f>
-        <v>0</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="1" t="e">
-        <f>B32/B31</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="B33">
-        <f>COUNTIF(1:30,A33)</f>
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" s="1" t="e">
-        <f>B33/B31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="1" t="e">
-        <f>B33/B32</f>
-        <v>#DIV/0!</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
